--- a/switch_mod/test_dat/project_info.xlsx
+++ b/switch_mod/test_dat/project_info.xlsx
@@ -1,19 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26120" windowHeight="17480" tabRatio="824" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="2440" yWindow="0" windowWidth="26120" windowHeight="17480" tabRatio="824" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="all_projects.tab" sheetId="1" r:id="rId1"/>
-    <sheet name="existing_projects.tab" sheetId="2" r:id="rId2"/>
-    <sheet name="cap_limited_projects.tab" sheetId="3" r:id="rId3"/>
-    <sheet name="thermal_projects.tab" sheetId="4" r:id="rId4"/>
-    <sheet name="projects_specific_costs.tab" sheetId="5" r:id="rId5"/>
-    <sheet name="proj_variable_costs" sheetId="6" r:id="rId6"/>
-    <sheet name="variable_capacity_factors" sheetId="7" r:id="rId7"/>
+    <sheet name="project_info.tab" sheetId="1" r:id="rId1"/>
+    <sheet name="proj_existing_builds.tab" sheetId="2" r:id="rId2"/>
+    <sheet name="proj_build_costs.tab" sheetId="5" r:id="rId3"/>
+    <sheet name="variable_capacity_factors" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="59">
   <si>
     <t>PROJECT</t>
   </si>
   <si>
-    <t>proj_dbid</t>
-  </si>
-  <si>
     <t>proj_gen_tech</t>
   </si>
   <si>
@@ -186,54 +180,6 @@
     <t>S-Commercial_PV</t>
   </si>
   <si>
-    <t>S-NG_GT_CAES_cavern</t>
-  </si>
-  <si>
-    <t>proj_heat_rate</t>
-  </si>
-  <si>
-    <t>N-Coal_IGCC</t>
-  </si>
-  <si>
-    <t>N-Coal_IGCC_CCS</t>
-  </si>
-  <si>
-    <t>N-NG_CC_CCS</t>
-  </si>
-  <si>
-    <t>N-Nuclear</t>
-  </si>
-  <si>
-    <t>N-Biomass_IGCC</t>
-  </si>
-  <si>
-    <t>N-Biomass_IGCC_CCS</t>
-  </si>
-  <si>
-    <t>N-NG_GT_CAES_cavern</t>
-  </si>
-  <si>
-    <t>C-Coal_IGCC</t>
-  </si>
-  <si>
-    <t>C-Nuclear</t>
-  </si>
-  <si>
-    <t>C-Biomass_IGCC</t>
-  </si>
-  <si>
-    <t>C-NG_GT_CAES_cavern</t>
-  </si>
-  <si>
-    <t>S-NG_CC_CCS</t>
-  </si>
-  <si>
-    <t>S-Biomass_IGCC</t>
-  </si>
-  <si>
-    <t>S-Biomass_IGCC_CCS</t>
-  </si>
-  <si>
     <t>proj_overnight_cost</t>
   </si>
   <si>
@@ -246,7 +192,13 @@
     <t>timepoint</t>
   </si>
   <si>
-    <t>prj_capacity_factor</t>
+    <t>.</t>
+  </si>
+  <si>
+    <t>proj_full_load_heat_rate</t>
+  </si>
+  <si>
+    <t>proj_max_capacity_factor</t>
   </si>
 </sst>
 </file>
@@ -302,8 +254,106 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="233">
+  <cellStyleXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -545,7 +595,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="233">
+  <cellStyles count="331">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -662,6 +712,55 @@
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -778,6 +877,55 @@
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1107,22 +1255,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A43" activeCellId="15" sqref="A12 A13 A14 A15 A16 A17 A26 A27 A28 A29 A30 A31 A40 A41 A42 A43"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1136,789 +1291,1464 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="str">
+        <f>CONCATENATE(LEFT(C2,1),"-",B2)</f>
+        <v>N-Geothermal</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="str">
-        <f>CONCATENATE(LEFT(D2,1),"-",C2)</f>
-        <v>N-Geothermal</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2">
+        <v>163081.1</v>
+      </c>
+      <c r="E2">
+        <v>1.5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2">
+        <v>1.5</v>
+      </c>
+      <c r="W2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2">
+        <v>28.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A19" si="0">CONCATENATE(LEFT(C3,1),"-",B3)</f>
+        <v>N-Coal_IGCC</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>163081.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A19" si="0">CONCATENATE(LEFT(D3,1),"-",C3)</f>
-        <v>N-Coal_IGCC</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>N-Coal_IGCC_CCS</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>N-Coal_ST</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="3">
+        <v>57566.6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3">
-        <v>57566.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5">
+        <v>3.4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5">
+        <v>3.4</v>
+      </c>
+      <c r="X5">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>N-NG_CC</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6">
+        <v>3.4131</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>N-NG_CC_CCS</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" t="s">
+        <v>56</v>
+      </c>
+      <c r="X7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>N-NG_GT</v>
       </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8">
+        <v>27.806999999999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>N-Nuclear</v>
       </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" t="s">
+        <v>56</v>
+      </c>
+      <c r="X9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>N-Biomass_IGCC</v>
       </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" t="s">
+        <v>56</v>
+      </c>
+      <c r="X10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>N-Biomass_IGCC_CCS</v>
       </c>
-      <c r="B11">
-        <v>10</v>
+      <c r="B11" t="s">
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" t="s">
+        <v>56</v>
+      </c>
+      <c r="X11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>N-Residential_PV</v>
       </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12">
+        <v>1.5</v>
+      </c>
+      <c r="W12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>N-Commercial_PV</v>
       </c>
-      <c r="B13">
-        <v>12</v>
+      <c r="B13" t="s">
+        <v>16</v>
       </c>
       <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="W13" t="s">
+        <v>56</v>
+      </c>
+      <c r="X13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>51271.7</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="W14" t="s">
+        <v>56</v>
+      </c>
+      <c r="X14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>101661</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="W15" t="s">
+        <v>56</v>
+      </c>
+      <c r="X15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>51271.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>71602.2</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="W16" t="s">
+        <v>56</v>
+      </c>
+      <c r="X16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="4">
-        <v>101661</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4">
-        <v>71602.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
       <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4">
         <v>80259.199999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
+        <v>56</v>
+      </c>
+      <c r="X17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>N-NG_GT_CAES_cavern</v>
       </c>
-      <c r="B18">
-        <v>17</v>
+      <c r="B18" t="s">
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="W18" t="s">
+        <v>56</v>
+      </c>
+      <c r="X18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>N-Battery_Storage</v>
       </c>
-      <c r="B19">
-        <v>18</v>
+      <c r="B19" t="s">
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="W19" t="s">
+        <v>56</v>
+      </c>
+      <c r="X19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="str">
-        <f>CONCATENATE(LEFT(D20,1),"-",C20)</f>
+        <f>CONCATENATE(LEFT(C20,1),"-",B20)</f>
         <v>C-Coal_IGCC</v>
       </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="W20" t="s">
+        <v>56</v>
+      </c>
+      <c r="X20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="str">
-        <f t="shared" ref="A21:A27" si="1">CONCATENATE(LEFT(D21,1),"-",C21)</f>
+        <f t="shared" ref="A21:A27" si="1">CONCATENATE(LEFT(C21,1),"-",B21)</f>
         <v>C-Coal_ST</v>
       </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21">
+        <v>9.5</v>
+      </c>
+      <c r="G21">
+        <v>3.6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21">
+        <v>3.6</v>
+      </c>
+      <c r="X21">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
         <v>C-NG_CC</v>
       </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22">
+        <v>3.4131</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" t="s">
+        <v>56</v>
+      </c>
+      <c r="X22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="str">
         <f t="shared" si="1"/>
         <v>C-NG_GT</v>
       </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23">
+        <v>27.806999999999999</v>
+      </c>
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" t="s">
+        <v>56</v>
+      </c>
+      <c r="X23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="str">
         <f t="shared" si="1"/>
         <v>C-Nuclear</v>
       </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="W24" t="s">
+        <v>56</v>
+      </c>
+      <c r="X24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="str">
         <f t="shared" si="1"/>
         <v>C-Biomass_IGCC</v>
       </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="W25" t="s">
+        <v>56</v>
+      </c>
+      <c r="X25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="str">
         <f t="shared" si="1"/>
         <v>C-Residential_PV</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+      <c r="W26" t="s">
+        <v>56</v>
+      </c>
+      <c r="X26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="str">
         <f t="shared" si="1"/>
         <v>C-Commercial_PV</v>
       </c>
-      <c r="B27">
-        <v>26</v>
+      <c r="B27" t="s">
+        <v>16</v>
       </c>
       <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27">
+        <v>0.7</v>
+      </c>
+      <c r="W27" t="s">
+        <v>56</v>
+      </c>
+      <c r="X27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
         <v>17</v>
       </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>122526.8</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="W28" t="s">
+        <v>56</v>
+      </c>
+      <c r="X28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>45197.2</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="W29" t="s">
+        <v>56</v>
+      </c>
+      <c r="X29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>72541.5</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="W30" t="s">
+        <v>56</v>
+      </c>
+      <c r="X30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28">
-        <v>122526.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29">
-        <v>45197.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>77892.2</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="W31" t="s">
+        <v>56</v>
+      </c>
+      <c r="X31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" t="str">
+        <f t="shared" ref="A32:A41" si="2">CONCATENATE(LEFT(C32,1),"-",B32)</f>
+        <v>C-NG_GT_CAES_cavern</v>
+      </c>
+      <c r="B32" t="s">
         <v>19</v>
       </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30">
-        <v>72541.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31">
-        <v>77892.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="str">
-        <f t="shared" ref="A32:A41" si="2">CONCATENATE(LEFT(D32,1),"-",C32)</f>
-        <v>C-NG_GT_CAES_cavern</v>
-      </c>
-      <c r="B32">
-        <v>31</v>
-      </c>
       <c r="C32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="3">
+        <v>25</v>
+      </c>
+      <c r="D32" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+      <c r="W32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="str">
         <f t="shared" si="2"/>
         <v>C-Battery_Storage</v>
       </c>
-      <c r="B33">
-        <v>32</v>
+      <c r="B33" t="s">
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="3">
+        <v>25</v>
+      </c>
+      <c r="D33" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+      <c r="W33" t="s">
+        <v>56</v>
+      </c>
+      <c r="X33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="str">
         <f t="shared" si="2"/>
         <v>S-Geothermal</v>
       </c>
-      <c r="B34">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>27</v>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>134222</v>
       </c>
       <c r="E34">
-        <v>134222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="W34" t="s">
+        <v>56</v>
+      </c>
+      <c r="X34">
+        <v>28.83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="str">
         <f t="shared" si="2"/>
         <v>S-NG_CC</v>
       </c>
-      <c r="B35">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="B35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" t="s">
+        <v>56</v>
+      </c>
+      <c r="W35" t="s">
+        <v>56</v>
+      </c>
+      <c r="X35">
+        <v>3.4131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="str">
         <f t="shared" si="2"/>
         <v>S-NG_CC_CCS</v>
       </c>
-      <c r="B36">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="B36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" t="s">
+        <v>56</v>
+      </c>
+      <c r="W36" t="s">
+        <v>56</v>
+      </c>
+      <c r="X36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
         <v>S-NG_GT</v>
       </c>
-      <c r="B37">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="W37" t="s">
+        <v>56</v>
+      </c>
+      <c r="X37">
+        <v>27.806999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
         <v>S-Biomass_IGCC</v>
       </c>
-      <c r="B38">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" t="s">
+        <v>56</v>
+      </c>
+      <c r="W38" t="s">
+        <v>56</v>
+      </c>
+      <c r="X38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="str">
         <f t="shared" si="2"/>
         <v>S-Biomass_IGCC_CCS</v>
       </c>
-      <c r="B39">
-        <v>38</v>
+      <c r="B39" t="s">
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="3">
+        <v>26</v>
+      </c>
+      <c r="D39" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="E39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" t="s">
+        <v>56</v>
+      </c>
+      <c r="W39" t="s">
+        <v>56</v>
+      </c>
+      <c r="X39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="str">
         <f t="shared" si="2"/>
         <v>S-Residential_PV</v>
       </c>
-      <c r="B40">
-        <v>39</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="B40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="W40" t="s">
+        <v>56</v>
+      </c>
+      <c r="X40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="str">
         <f t="shared" si="2"/>
         <v>S-Commercial_PV</v>
       </c>
-      <c r="B41">
-        <v>40</v>
+      <c r="B41" t="s">
+        <v>16</v>
       </c>
       <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>3.3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41">
+        <v>3.3</v>
+      </c>
+      <c r="W41" t="s">
+        <v>56</v>
+      </c>
+      <c r="X41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
         <v>17</v>
       </c>
-      <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <v>74881.899999999994</v>
+      </c>
+      <c r="E42">
+        <v>0.8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42">
+        <v>0.8</v>
+      </c>
+      <c r="W42" t="s">
+        <v>56</v>
+      </c>
+      <c r="X42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43" t="s">
         <v>32</v>
       </c>
-      <c r="B42">
-        <v>41</v>
-      </c>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42">
-        <v>74881.899999999994</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43">
-        <v>42</v>
+      <c r="B43" t="s">
+        <v>17</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="D43">
+        <v>65370.3</v>
       </c>
       <c r="E43">
-        <v>65370.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H43">
+        <v>0.4</v>
+      </c>
+      <c r="W43" t="s">
+        <v>56</v>
+      </c>
+      <c r="X43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="str">
-        <f t="shared" ref="A44:A45" si="3">CONCATENATE(LEFT(D44,1),"-",C44)</f>
+        <f t="shared" ref="A44:A45" si="3">CONCATENATE(LEFT(C44,1),"-",B44)</f>
         <v>S-NG_GT_CAES_cavern</v>
       </c>
-      <c r="B44">
-        <v>43</v>
+      <c r="B44" t="s">
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="3">
+        <v>26</v>
+      </c>
+      <c r="D44" s="3">
         <v>57566.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" t="s">
+        <v>56</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="W44" t="s">
+        <v>56</v>
+      </c>
+      <c r="X44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="str">
         <f t="shared" si="3"/>
         <v>S-Battery_Storage</v>
       </c>
-      <c r="B45">
-        <v>44</v>
+      <c r="B45" t="s">
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="3">
+        <v>26</v>
+      </c>
+      <c r="D45" s="3">
         <v>57566.6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" t="s">
+        <v>56</v>
+      </c>
+      <c r="W45" t="s">
+        <v>56</v>
+      </c>
+      <c r="X45" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1952,15 +2782,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>1995</v>
@@ -1971,7 +2801,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -1982,7 +2812,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>2008</v>
@@ -1993,7 +2823,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>2009</v>
@@ -2004,7 +2834,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>1985</v>
@@ -2015,7 +2845,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>2005</v>
@@ -2026,7 +2856,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>2005</v>
@@ -2037,7 +2867,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>1998</v>
@@ -2048,7 +2878,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -2059,7 +2889,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>1990</v>
@@ -2070,7 +2900,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>2002</v>
@@ -2091,416 +2921,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="A1:B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3">
-        <v>10.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>6.7050000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6">
-        <v>10.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7">
-        <v>10.39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8">
-        <v>9.7200000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10">
-        <v>16.320799999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11">
-        <v>10.39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12">
-        <v>7.95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14">
-        <v>6.7050000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15">
-        <v>10.39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16">
-        <v>9.7200000000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18">
-        <v>10.39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19">
-        <v>6.7050000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20">
-        <v>10.08</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
-        <v>10.39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23">
-        <v>16.320799999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24">
-        <v>10.39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -2522,18 +2942,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>1995</v>
@@ -2547,7 +2967,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -2561,7 +2981,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>2008</v>
@@ -2575,7 +2995,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>2009</v>
@@ -2589,7 +3009,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>1985</v>
@@ -2603,7 +3023,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>2005</v>
@@ -2617,7 +3037,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>2005</v>
@@ -2631,7 +3051,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>1998</v>
@@ -2645,7 +3065,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>2000</v>
@@ -2659,7 +3079,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>1990</v>
@@ -2673,7 +3093,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>2002</v>
@@ -2696,129 +3116,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2">
-        <v>3.4502999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>28.83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>3.4131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5">
-        <v>27.806999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>3.4502999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7">
-        <v>3.4131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8">
-        <v>27.806999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9">
-        <v>28.83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10">
-        <v>3.4131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11">
-        <v>27.806999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12">
-        <v>27.806999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D192" sqref="D192"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2833,15 +3136,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2852,7 +3155,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2863,7 +3166,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2874,7 +3177,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2885,7 +3188,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2896,7 +3199,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2907,7 +3210,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2918,7 +3221,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2929,7 +3232,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2940,7 +3243,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2951,7 +3254,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2962,7 +3265,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2973,7 +3276,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2984,7 +3287,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2995,7 +3298,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -3006,7 +3309,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -3017,7 +3320,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -3028,7 +3331,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -3039,7 +3342,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -3050,7 +3353,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -3061,7 +3364,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -3072,7 +3375,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>9</v>
@@ -3083,7 +3386,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -3094,7 +3397,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>11</v>
@@ -3105,7 +3408,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>12</v>
@@ -3116,7 +3419,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>13</v>
@@ -3127,7 +3430,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3138,7 +3441,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -3149,7 +3452,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -3160,7 +3463,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -3171,7 +3474,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -3182,7 +3485,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -3193,7 +3496,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>7</v>
@@ -3204,7 +3507,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -3215,7 +3518,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36">
         <v>9</v>
@@ -3226,7 +3529,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37">
         <v>10</v>
@@ -3237,7 +3540,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38">
         <v>11</v>
@@ -3248,7 +3551,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39">
         <v>12</v>
@@ -3259,7 +3562,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40">
         <v>13</v>
@@ -3270,7 +3573,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3281,7 +3584,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -3292,7 +3595,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -3303,7 +3606,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -3314,7 +3617,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -3325,7 +3628,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -3336,7 +3639,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -3347,7 +3650,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -3358,7 +3661,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49">
         <v>9</v>
@@ -3369,7 +3672,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50">
         <v>10</v>
@@ -3380,7 +3683,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51">
         <v>11</v>
@@ -3391,7 +3694,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52">
         <v>12</v>
@@ -3402,7 +3705,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53">
         <v>13</v>
@@ -3413,7 +3716,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -3424,7 +3727,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -3435,7 +3738,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -3446,7 +3749,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -3457,7 +3760,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -3468,7 +3771,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -3479,7 +3782,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60">
         <v>7</v>
@@ -3490,7 +3793,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -3501,7 +3804,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B62">
         <v>9</v>
@@ -3512,7 +3815,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -3523,7 +3826,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64">
         <v>11</v>
@@ -3534,7 +3837,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65">
         <v>12</v>
@@ -3545,7 +3848,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B66">
         <v>13</v>
@@ -3556,7 +3859,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -3567,7 +3870,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -3578,7 +3881,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -3589,7 +3892,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -3600,7 +3903,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -3611,7 +3914,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -3622,7 +3925,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B73">
         <v>7</v>
@@ -3633,7 +3936,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -3644,7 +3947,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B75">
         <v>9</v>
@@ -3655,7 +3958,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B76">
         <v>10</v>
@@ -3666,7 +3969,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B77">
         <v>11</v>
@@ -3677,7 +3980,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B78">
         <v>12</v>
@@ -3688,7 +3991,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B79">
         <v>13</v>
@@ -3699,7 +4002,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -3710,7 +4013,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -3721,7 +4024,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -3732,7 +4035,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B83">
         <v>4</v>
@@ -3743,7 +4046,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -3754,7 +4057,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -3765,7 +4068,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B86">
         <v>7</v>
@@ -3776,7 +4079,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B87">
         <v>8</v>
@@ -3787,7 +4090,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B88">
         <v>9</v>
@@ -3798,7 +4101,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B89">
         <v>10</v>
@@ -3809,7 +4112,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B90">
         <v>11</v>
@@ -3820,7 +4123,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B91">
         <v>12</v>
@@ -3831,7 +4134,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B92">
         <v>13</v>
@@ -3842,7 +4145,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -3853,7 +4156,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -3864,7 +4167,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -3875,7 +4178,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B96">
         <v>4</v>
@@ -3886,7 +4189,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -3897,7 +4200,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B98">
         <v>6</v>
@@ -3908,7 +4211,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B99">
         <v>7</v>
@@ -3919,7 +4222,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B100">
         <v>8</v>
@@ -3930,7 +4233,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B101">
         <v>9</v>
@@ -3941,7 +4244,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B102">
         <v>10</v>
@@ -3952,7 +4255,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B103">
         <v>11</v>
@@ -3963,7 +4266,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B104">
         <v>12</v>
@@ -3974,7 +4277,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B105">
         <v>13</v>
@@ -3985,7 +4288,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -3996,7 +4299,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -4007,7 +4310,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -4018,7 +4321,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B109">
         <v>4</v>
@@ -4029,7 +4332,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -4040,7 +4343,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B111">
         <v>6</v>
@@ -4051,7 +4354,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B112">
         <v>7</v>
@@ -4062,7 +4365,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B113">
         <v>8</v>
@@ -4073,7 +4376,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B114">
         <v>9</v>
@@ -4084,7 +4387,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B115">
         <v>10</v>
@@ -4095,7 +4398,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B116">
         <v>11</v>
@@ -4106,7 +4409,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B117">
         <v>12</v>
@@ -4117,7 +4420,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B118">
         <v>13</v>
@@ -4128,7 +4431,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -4139,7 +4442,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -4150,7 +4453,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -4161,7 +4464,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -4172,7 +4475,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -4183,7 +4486,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B124">
         <v>6</v>
@@ -4194,7 +4497,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B125">
         <v>7</v>
@@ -4205,7 +4508,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B126">
         <v>8</v>
@@ -4216,7 +4519,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B127">
         <v>9</v>
@@ -4227,7 +4530,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B128">
         <v>10</v>
@@ -4238,7 +4541,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B129">
         <v>11</v>
@@ -4249,7 +4552,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B130">
         <v>12</v>
@@ -4260,7 +4563,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B131">
         <v>13</v>
@@ -4271,7 +4574,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -4282,7 +4585,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -4293,7 +4596,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -4304,7 +4607,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -4315,7 +4618,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B136">
         <v>5</v>
@@ -4326,7 +4629,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B137">
         <v>6</v>
@@ -4337,7 +4640,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B138">
         <v>7</v>
@@ -4348,7 +4651,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B139">
         <v>8</v>
@@ -4359,7 +4662,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B140">
         <v>9</v>
@@ -4370,7 +4673,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B141">
         <v>10</v>
@@ -4381,7 +4684,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B142">
         <v>11</v>
@@ -4392,7 +4695,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B143">
         <v>12</v>
@@ -4403,7 +4706,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B144">
         <v>13</v>
@@ -4414,7 +4717,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4425,7 +4728,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B146">
         <v>2</v>
@@ -4436,7 +4739,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B147">
         <v>3</v>
@@ -4447,7 +4750,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B148">
         <v>4</v>
@@ -4458,7 +4761,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B149">
         <v>5</v>
@@ -4469,7 +4772,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B150">
         <v>6</v>
@@ -4480,7 +4783,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B151">
         <v>7</v>
@@ -4491,7 +4794,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B152">
         <v>8</v>
@@ -4502,7 +4805,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B153">
         <v>9</v>
@@ -4513,7 +4816,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B154">
         <v>10</v>
@@ -4524,7 +4827,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B155">
         <v>11</v>
@@ -4535,7 +4838,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B156">
         <v>12</v>
@@ -4546,7 +4849,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B157">
         <v>13</v>
@@ -4557,7 +4860,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -4568,7 +4871,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -4579,7 +4882,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B160">
         <v>3</v>
@@ -4590,7 +4893,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B161">
         <v>4</v>
@@ -4601,7 +4904,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B162">
         <v>5</v>
@@ -4612,7 +4915,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B163">
         <v>6</v>
@@ -4623,7 +4926,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B164">
         <v>7</v>
@@ -4634,7 +4937,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B165">
         <v>8</v>
@@ -4645,7 +4948,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B166">
         <v>9</v>
@@ -4656,7 +4959,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B167">
         <v>10</v>
@@ -4667,7 +4970,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B168">
         <v>11</v>
@@ -4678,7 +4981,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B169">
         <v>12</v>
@@ -4689,7 +4992,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B170">
         <v>13</v>
@@ -4700,7 +5003,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -4711,7 +5014,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B172">
         <v>2</v>
@@ -4722,7 +5025,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B173">
         <v>3</v>
@@ -4733,7 +5036,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -4744,7 +5047,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B175">
         <v>5</v>
@@ -4755,7 +5058,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B176">
         <v>6</v>
@@ -4766,7 +5069,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B177">
         <v>7</v>
@@ -4777,7 +5080,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B178">
         <v>8</v>
@@ -4788,7 +5091,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B179">
         <v>9</v>
@@ -4799,7 +5102,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B180">
         <v>10</v>
@@ -4810,7 +5113,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B181">
         <v>11</v>
@@ -4821,7 +5124,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B182">
         <v>12</v>
@@ -4832,7 +5135,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B183">
         <v>13</v>
@@ -4843,7 +5146,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -4854,7 +5157,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -4865,7 +5168,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B186">
         <v>3</v>
@@ -4876,7 +5179,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B187">
         <v>4</v>
@@ -4887,7 +5190,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B188">
         <v>5</v>
@@ -4898,7 +5201,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B189">
         <v>6</v>
@@ -4909,7 +5212,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B190">
         <v>7</v>
@@ -4920,7 +5223,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B191">
         <v>8</v>
@@ -4931,7 +5234,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B192">
         <v>9</v>
@@ -4942,7 +5245,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B193">
         <v>10</v>
@@ -4953,7 +5256,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B194">
         <v>11</v>
@@ -4964,7 +5267,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B195">
         <v>12</v>
@@ -4975,7 +5278,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B196">
         <v>13</v>
@@ -4986,7 +5289,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -4997,7 +5300,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B198">
         <v>2</v>
@@ -5008,7 +5311,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B199">
         <v>3</v>
@@ -5019,7 +5322,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B200">
         <v>4</v>
@@ -5030,7 +5333,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B201">
         <v>5</v>
@@ -5041,7 +5344,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B202">
         <v>6</v>
@@ -5052,7 +5355,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B203">
         <v>7</v>
@@ -5063,7 +5366,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B204">
         <v>8</v>
@@ -5074,7 +5377,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B205">
         <v>9</v>
@@ -5085,7 +5388,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B206">
         <v>10</v>
@@ -5096,7 +5399,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B207">
         <v>11</v>
@@ -5107,7 +5410,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B208">
         <v>12</v>
@@ -5118,7 +5421,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B209">
         <v>13</v>
